--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H2">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J2">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>87.94215800000001</v>
+        <v>0.033584</v>
       </c>
       <c r="N2">
-        <v>263.826474</v>
+        <v>0.100752</v>
       </c>
       <c r="O2">
-        <v>0.8507690866039653</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="P2">
-        <v>0.8507690866039652</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="Q2">
-        <v>5960.061398071687</v>
+        <v>1.586184477408</v>
       </c>
       <c r="R2">
-        <v>53640.55258264518</v>
+        <v>14.275660296672</v>
       </c>
       <c r="S2">
-        <v>0.3470829847175812</v>
+        <v>0.0007047875233020201</v>
       </c>
       <c r="T2">
-        <v>0.3470829847175811</v>
+        <v>0.0007047875233020202</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H3">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J3">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>40.926957</v>
       </c>
       <c r="O3">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="P3">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="Q3">
-        <v>924.5742963469231</v>
+        <v>644.3316648894779</v>
       </c>
       <c r="R3">
-        <v>8321.168667122307</v>
+        <v>5798.984984005301</v>
       </c>
       <c r="S3">
-        <v>0.05384239942109866</v>
+        <v>0.2862951470970133</v>
       </c>
       <c r="T3">
-        <v>0.05384239942109866</v>
+        <v>0.2862951470970133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>67.77251700000001</v>
+        <v>47.23036199999999</v>
       </c>
       <c r="H4">
-        <v>203.317551</v>
+        <v>141.691086</v>
       </c>
       <c r="I4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="J4">
-        <v>0.4079637943863715</v>
+        <v>0.3244251370417807</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>5.350072</v>
       </c>
       <c r="O4">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="P4">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="Q4">
-        <v>120.862615190408</v>
+        <v>84.22861242868798</v>
       </c>
       <c r="R4">
-        <v>1087.763536713672</v>
+        <v>758.0575118581919</v>
       </c>
       <c r="S4">
-        <v>0.007038410247691665</v>
+        <v>0.03742520242146544</v>
       </c>
       <c r="T4">
-        <v>0.007038410247691665</v>
+        <v>0.03742520242146544</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>182.932819</v>
       </c>
       <c r="I5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J5">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>87.94215800000001</v>
+        <v>0.033584</v>
       </c>
       <c r="N5">
-        <v>263.826474</v>
+        <v>0.100752</v>
       </c>
       <c r="O5">
-        <v>0.8507690866039653</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="P5">
-        <v>0.8507690866039652</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="Q5">
-        <v>5362.502290627801</v>
+        <v>2.047871931098666</v>
       </c>
       <c r="R5">
-        <v>48262.52061565021</v>
+        <v>18.430847379888</v>
       </c>
       <c r="S5">
-        <v>0.3122842494857763</v>
+        <v>0.0009099285782428596</v>
       </c>
       <c r="T5">
-        <v>0.3122842494857762</v>
+        <v>0.0009099285782428597</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>182.932819</v>
       </c>
       <c r="I6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J6">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>40.926957</v>
       </c>
       <c r="O6">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="P6">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="Q6">
         <v>831.8759574557537</v>
@@ -818,10 +818,10 @@
         <v>7486.883617101783</v>
       </c>
       <c r="S6">
-        <v>0.04844413017657067</v>
+        <v>0.3696264867676737</v>
       </c>
       <c r="T6">
-        <v>0.04844413017657066</v>
+        <v>0.3696264867676737</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>182.932819</v>
       </c>
       <c r="I7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="J7">
-        <v>0.3670611149405164</v>
+        <v>0.4188548944674916</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>5.350072</v>
       </c>
       <c r="O7">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="P7">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="Q7">
         <v>108.7448614236631</v>
@@ -880,10 +880,10 @@
         <v>978.703752812968</v>
       </c>
       <c r="S7">
-        <v>0.00633273527816949</v>
+        <v>0.04831847912157508</v>
       </c>
       <c r="T7">
-        <v>0.006332735278169489</v>
+        <v>0.04831847912157508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>112.121186</v>
       </c>
       <c r="I8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J8">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>87.94215800000001</v>
+        <v>0.033584</v>
       </c>
       <c r="N8">
-        <v>263.826474</v>
+        <v>0.100752</v>
       </c>
       <c r="O8">
-        <v>0.8507690866039653</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="P8">
-        <v>0.8507690866039652</v>
+        <v>0.002172419590320632</v>
       </c>
       <c r="Q8">
-        <v>3286.72635145313</v>
+        <v>1.255159303541333</v>
       </c>
       <c r="R8">
-        <v>29580.53716307817</v>
+        <v>11.296433731872</v>
       </c>
       <c r="S8">
-        <v>0.1914018524006079</v>
+        <v>0.0005577034887757523</v>
       </c>
       <c r="T8">
-        <v>0.1914018524006079</v>
+        <v>0.0005577034887757523</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>112.121186</v>
       </c>
       <c r="I9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J9">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>40.926957</v>
       </c>
       <c r="O9">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="P9">
-        <v>0.1319783769098539</v>
+        <v>0.8824690642271135</v>
       </c>
       <c r="Q9">
         <v>509.8643286901114</v>
@@ -1004,10 +1004,10 @@
         <v>4588.778958211003</v>
       </c>
       <c r="S9">
-        <v>0.02969184731218455</v>
+        <v>0.2265474303624266</v>
       </c>
       <c r="T9">
-        <v>0.02969184731218455</v>
+        <v>0.2265474303624265</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>112.121186</v>
       </c>
       <c r="I10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907278</v>
       </c>
       <c r="J10">
-        <v>0.2249750906731122</v>
+        <v>0.2567199684907277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>5.350072</v>
       </c>
       <c r="O10">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="P10">
-        <v>0.01725253648618087</v>
+        <v>0.115358516182566</v>
       </c>
       <c r="Q10">
         <v>66.65071309171023</v>
@@ -1066,10 +1066,10 @@
         <v>599.856417825392</v>
       </c>
       <c r="S10">
-        <v>0.003881390960319718</v>
+        <v>0.02961483463952544</v>
       </c>
       <c r="T10">
-        <v>0.003881390960319718</v>
+        <v>0.02961483463952544</v>
       </c>
     </row>
   </sheetData>
